--- a/src/files/xlsx.xlsx
+++ b/src/files/xlsx.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,25 +435,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>5766724138</v>
+        <v>306726408</v>
       </c>
       <c r="B3" t="str">
-        <v>Fjord</v>
+        <v>Vadym</v>
       </c>
       <c r="C3" t="str">
-        <v>Bjornson</v>
+        <v>Serheiev</v>
       </c>
       <c r="D3" t="str">
-        <v>fjordbjornson</v>
+        <v>serheievvadym</v>
       </c>
       <c r="E3" s="1">
-        <v>44857.73278619213</v>
+        <v>44872.74652788194</v>
       </c>
       <c r="F3" t="str">
-        <v>Джон Сноу</v>
+        <v>bot bot</v>
       </c>
       <c r="G3" t="str">
-        <v>Я нічого не знаю ;(</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -478,52 +478,160 @@
         <v>Дата</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>306726408</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Vadym</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Serheiev</v>
-      </c>
-      <c r="D7" t="str">
-        <v>serheievvadym</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44857.728438391205</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Учасники</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>І'мя</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Прізвище</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Юзернейм</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Дата</v>
+      </c>
+      <c r="F2" t="str">
+        <v>ФІО</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Анкета</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Очікуємо оплату</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B5" t="str">
+        <v>І'мя</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Прізвище</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Юзернейм</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Дата</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Учасники</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B2" t="str">
+        <v>І'мя</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Прізвище</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Юзернейм</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Дата</v>
+      </c>
+      <c r="F2" t="str">
+        <v>ФІО</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Анкета</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>306726408</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Vadym</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Serheiev</v>
+      </c>
+      <c r="D3" t="str">
+        <v>serheievvadym</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44872.391427002316</v>
+      </c>
+      <c r="F3" t="str">
+        <v>bot bot</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Очікуємо оплату</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B6" t="str">
+        <v>І'мя</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Прізвище</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Юзернейм</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Дата</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>